--- a/References/excel/虛擬資料.xlsx
+++ b/References/excel/虛擬資料.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Artists_treasure\References\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Desktop\Artists_treasure\References\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6F8DB6-05F0-4C7E-869A-A165F092F778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C2EA32-1A4C-4BF5-8A0A-B9603EFD1966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="創作品資料表(ARTWORK)" sheetId="1" r:id="rId1"/>
@@ -1217,7 +1217,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1399,9 +1399,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1711,26 +1708,26 @@
   </sheetPr>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.75" style="18" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2362,16 +2359,16 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
@@ -2527,16 +2524,16 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="46" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.600000000000001" customHeight="1">
@@ -2705,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="41" customFormat="1" ht="63">
+    <row r="9" spans="1:7" s="41" customFormat="1" ht="62.4">
       <c r="A9" s="40" t="s">
         <v>44</v>
       </c>
@@ -2724,7 +2721,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="110.25">
+    <row r="10" spans="1:7" ht="124.8">
       <c r="A10" s="40" t="s">
         <v>47</v>
       </c>
@@ -2768,16 +2765,16 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1">
@@ -2946,16 +2943,16 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" style="52" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="52"/>
+    <col min="1" max="1" width="20.375" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="52" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.875" style="52" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3118,16 +3115,16 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.28515625" style="52" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="52"/>
+    <col min="1" max="1" width="20.375" style="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.25" style="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="52" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.25" style="52" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3291,20 +3288,20 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1">
@@ -3695,7 +3692,7 @@
       <c r="F17" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="G17" s="62">
+      <c r="G17" s="26">
         <v>1</v>
       </c>
       <c r="H17" s="10">
@@ -3748,15 +3745,15 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1">
@@ -3839,17 +3836,17 @@
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1">
@@ -3941,15 +3938,15 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1">
@@ -4203,16 +4200,16 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1">
@@ -4394,16 +4391,16 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1">

--- a/References/excel/虛擬資料.xlsx
+++ b/References/excel/虛擬資料.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Desktop\Artists_treasure\References\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C2EA32-1A4C-4BF5-8A0A-B9603EFD1966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93B9ABE-9168-42F4-9D4A-83D528FBB521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1708,8 +1708,8 @@
   </sheetPr>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
